--- a/PizzaShop/Docs/Lab01/solved/Lab01_ReviewReport.xlsx
+++ b/PizzaShop/Docs/Lab01/solved/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\Documents\VVSS\PizzaShop\Docs\solved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\Documents\VVSS\PizzaShop\Docs\Lab01\solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00274F92-9DFB-49CB-8E13-11CC50E834BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F11C3-0BBB-4258-9C7C-F332105B7471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="4950" windowWidth="28800" windowHeight="15435" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="2010" windowWidth="28800" windowHeight="15435" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -290,9 +290,6 @@
     <t>MenuDataModel, OrdersGUI</t>
   </si>
   <si>
-    <t>Being a part of the model, the MenuData object should've contained only the relevant attributes of a MenuData(menuItem: String, quantity: Integer and price: Double). If there is a need for additional attributes for this, there should exist another class MenuDataModel, which could extend the MenuData class (for example). As for the OrdersGUI, if a PizzaService object is received as a parameter for DisplayOrdersFrom, there is no need to keep a PizzaService as an attribute (or viceversa)</t>
-  </si>
-  <si>
     <t>PaymentAlert can be found inside service directory but it is basically used as a GUI component. It should not be related to any services. It should only show the payment alert, get the user inputs, log them and return the relevant results. So from my point of view, it should be located in the gui directory.</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>~2</t>
+  </si>
+  <si>
+    <t>Being a part of the model, the MenuData object should've contained only the relevant attributes of a MenuData(menuItem: String, quantity: Integer and price: Double). If there is a need for additional attributes for this, there should exist another class MenuDataModel, which could be composed by a MenuData object (for example). As for the OrdersGUI, if a PizzaService object is received as a parameter for DisplayOrdersFrom, there is no need to keep a PizzaService as an attribute (or viceversa)</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,20 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,18 +616,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,19 +981,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1006,7 +1006,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="24" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -1017,14 +1017,14 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="24" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -1035,14 +1035,14 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="24" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="3">
@@ -1054,19 +1054,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1294,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,19 +1315,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1340,7 +1340,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="24" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -1351,14 +1351,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="35"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="24" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -1369,14 +1369,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="37"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="24" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="3">
@@ -1388,19 +1388,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1427,7 +1427,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1442,7 +1442,7 @@
         <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -1454,164 +1454,164 @@
         <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="41">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="41">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="41">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="41">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="41">
+      <c r="B18" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="41">
+      <c r="B19" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="41">
+      <c r="B20" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="41">
+      <c r="B21" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="41">
+      <c r="B22" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="41">
+      <c r="B23" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="41">
+      <c r="B24" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="41">
+      <c r="B25" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="41">
+      <c r="B26" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1670,19 +1670,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1695,7 +1695,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="24" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -1706,14 +1706,14 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="38"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="24" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -1724,14 +1724,14 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="40"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="24" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="3">
@@ -1743,17 +1743,17 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2007,19 +2007,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -2032,7 +2032,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="24" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -2043,12 +2043,12 @@
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="24" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -2059,12 +2059,12 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="24" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="3">
@@ -2076,8 +2076,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2309,11 +2309,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/PizzaShop/Docs/Lab01/solved/Lab01_ReviewReport.xlsx
+++ b/PizzaShop/Docs/Lab01/solved/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\Documents\VVSS\PizzaShop\Docs\Lab01\solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F11C3-0BBB-4258-9C7C-F332105B7471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F60079-AA6A-4912-95EA-BD2D471157CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="2010" windowWidth="28800" windowHeight="15435" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10035" yWindow="4065" windowWidth="28800" windowHeight="15435" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -330,13 +330,52 @@
   </si>
   <si>
     <t>Being a part of the model, the MenuData object should've contained only the relevant attributes of a MenuData(menuItem: String, quantity: Integer and price: Double). If there is a need for additional attributes for this, there should exist another class MenuDataModel, which could be composed by a MenuData object (for example). As for the OrdersGUI, if a PizzaService object is received as a parameter for DisplayOrdersFrom, there is no need to keep a PizzaService as an attribute (or viceversa)</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuData.java(4,22) </t>
+  </si>
+  <si>
+    <t>public class MenuData {</t>
+  </si>
+  <si>
+    <t>"{" should be moved "to the beginning of next line of code"</t>
+  </si>
+  <si>
+    <t>Because if I am moving it to the beginning of the next line of code then I have the following error: "{" should be model "to the end of previous line of code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuData.java(27,8) </t>
+  </si>
+  <si>
+    <t>"\t\treturn price;"</t>
+  </si>
+  <si>
+    <t>The suggested change would actually require to misalign the code.</t>
+  </si>
+  <si>
+    <t>MenuData.java(6,4)</t>
+  </si>
+  <si>
+    <t>"Make this line start after 4 spaces to indent the code consistently"</t>
+  </si>
+  <si>
+    <t>"Make this line start after 2 spaces to indent the code consistently"</t>
+  </si>
+  <si>
+    <t>"\tprivate String menuItem;"</t>
+  </si>
+  <si>
+    <t>All the found errors are just like these three from above…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +466,11 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -528,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,7 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -610,11 +653,74 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,21 +1087,21 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -1006,7 +1112,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -1017,14 +1123,14 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -1035,14 +1141,14 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="3">
@@ -1054,19 +1160,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1294,7 +1400,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1315,21 +1421,21 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -1340,7 +1446,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -1351,14 +1457,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="35"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -1369,14 +1475,14 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="36"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="3">
@@ -1388,19 +1494,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1461,24 +1567,24 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1489,14 +1595,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>89</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1504,11 +1610,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1519,11 +1625,11 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1534,84 +1640,84 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1670,21 +1776,21 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
       <c r="J2" s="18" t="s">
@@ -1695,7 +1801,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="18">
@@ -1706,14 +1812,14 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="37"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="3">
@@ -1724,14 +1830,14 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="39"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="3">
@@ -1743,17 +1849,17 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1768,8 +1874,8 @@
       <c r="E9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -1866,10 +1972,10 @@
       <c r="D16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
@@ -1984,337 +2090,369 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="6"/>
-    <col min="8" max="8" width="11.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="43"/>
+    <col min="2" max="2" width="12.28515625" style="43" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="18" style="43" customWidth="1"/>
+    <col min="5" max="5" width="24" style="43" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="43"/>
+    <col min="8" max="8" width="11.28515625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="43" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="49">
         <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="H4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="16">
         <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="H5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="16">
         <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="D6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="54"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="57">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="C10" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="57">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="C11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="57">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="C12" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="57">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="57">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="57">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="B20" s="57">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="B21" s="57">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="57">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="57">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="B24" s="57">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="B25" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="B26" s="57">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
+      <c r="B27" s="57">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
+      <c r="B28" s="57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
+      <c r="B29" s="57">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="B30" s="57">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="11"/>
+      <c r="E31" s="59"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/PizzaShop/Docs/Lab01/solved/Lab01_ReviewReport.xlsx
+++ b/PizzaShop/Docs/Lab01/solved/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ad\Documents\VVSS\PizzaShop\Docs\Lab01\solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F60079-AA6A-4912-95EA-BD2D471157CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046BE1A-555E-4A94-AD26-E488FAF89927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10035" yWindow="4065" windowWidth="28800" windowHeight="15435" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -335,40 +335,78 @@
     <t>SonarLint</t>
   </si>
   <si>
-    <t xml:space="preserve">MenuData.java(4,22) </t>
-  </si>
-  <si>
-    <t>public class MenuData {</t>
-  </si>
-  <si>
-    <t>"{" should be moved "to the beginning of next line of code"</t>
-  </si>
-  <si>
-    <t>Because if I am moving it to the beginning of the next line of code then I have the following error: "{" should be model "to the end of previous line of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MenuData.java(27,8) </t>
-  </si>
-  <si>
-    <t>"\t\treturn price;"</t>
-  </si>
-  <si>
-    <t>The suggested change would actually require to misalign the code.</t>
-  </si>
-  <si>
-    <t>MenuData.java(6,4)</t>
-  </si>
-  <si>
-    <t>"Make this line start after 4 spaces to indent the code consistently"</t>
-  </si>
-  <si>
-    <t>"Make this line start after 2 spaces to indent the code consistently"</t>
-  </si>
-  <si>
-    <t>"\tprivate String menuItem;"</t>
-  </si>
-  <si>
-    <t>All the found errors are just like these three from above…</t>
+    <t>Add a nested comment explaining why this method is empty, throw an UnsupportedOperationException or complete the implementation</t>
+  </si>
+  <si>
+    <t>public MainGUIController(){}</t>
+  </si>
+  <si>
+    <t>public MainGUIController(){ /*explanation*/ }</t>
+  </si>
+  <si>
+    <t>MainGUIController.java (47,11)</t>
+  </si>
+  <si>
+    <t>MainGUIController.java (60,40)</t>
+  </si>
+  <si>
+    <t>Assign this magic number 2 to a well-names constant, and use the constant instead</t>
+  </si>
+  <si>
+    <t>table2Orders.setTableNumber(2);</t>
+  </si>
+  <si>
+    <t>final int magicNumberTwo = 2;
+            table2Orders.setTableNumber(magicNumberTwo);</t>
+  </si>
+  <si>
+    <t>MenuRepository.java(26,8)</t>
+  </si>
+  <si>
+    <t>Change this "try" to a try-with-resources</t>
+  </si>
+  <si>
+    <t>try {
+            menuBufferReader = new BufferedReader(new FileReader(menuFile));</t>
+  </si>
+  <si>
+    <t>If a try-with-resources is used, the finally block of code will not be able to see the menuBufferReader object</t>
+  </si>
+  <si>
+    <t>PaymentAlert.java (40,19)</t>
+  </si>
+  <si>
+    <t>Reduce the number of returns of this method 4, down to the maximum allowed 3.</t>
+  </si>
+  <si>
+    <t>else {
+                cancelPayment();
+                return null;
+            }
+        }
+        cancelPayment();
+        return null;</t>
+  </si>
+  <si>
+    <t>else {
+                cancelPayment();
+            }
+        }
+        cancelPayment();
+        return null;</t>
+  </si>
+  <si>
+    <t>OrdersGUIController.java (137,12)</t>
+  </si>
+  <si>
+    <t>Split this 134 characters long line (which is greater than 120 authorized)</t>
+  </si>
+  <si>
+    <t>public void changed(ObservableValue&lt;? extends MenuDataModel&gt; observable, MenuDataModel oldValue, MenuDataModel newValue) {</t>
+  </si>
+  <si>
+    <t>public void changed(ObservableValue&lt;? extends MenuDataModel&gt; observable, 
+                                MenuDataModel oldValue, MenuDataModel newValue) {</t>
   </si>
 </sst>
 </file>
@@ -572,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,6 +649,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -653,17 +736,11 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -677,50 +754,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,19 +1128,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>31</v>
@@ -1123,10 +1164,10 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="46"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1141,10 +1182,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="48"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1160,19 +1201,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1421,19 +1462,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>31</v>
@@ -1457,10 +1498,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="34"/>
+      <c r="E4" s="49"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1475,10 +1516,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="51"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1494,19 +1535,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1776,19 +1817,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>31</v>
@@ -1812,10 +1853,10 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="52"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
@@ -1830,10 +1871,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="54"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1849,17 +1890,17 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2090,73 +2131,73 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="43"/>
-    <col min="2" max="2" width="12.28515625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="43" customWidth="1"/>
-    <col min="4" max="4" width="18" style="43" customWidth="1"/>
-    <col min="5" max="5" width="24" style="43" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="43"/>
-    <col min="8" max="8" width="11.28515625" style="43" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="43" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="43"/>
+    <col min="1" max="1" width="8.85546875" style="29"/>
+    <col min="2" max="2" width="12.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="77.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="29"/>
+    <col min="8" max="8" width="11.28515625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="31">
         <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="H4" s="49" t="s">
+      <c r="E4" s="61"/>
+      <c r="H4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="32" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="16">
@@ -2164,17 +2205,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="H5" s="49" t="s">
+      <c r="E5" s="62"/>
+      <c r="H5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="32" t="s">
         <v>71</v>
       </c>
       <c r="J5" s="16">
@@ -2182,277 +2223,291 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="57">
+    <row r="10" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="E10" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="57">
+      <c r="B11" s="37">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="E11" s="26" t="s">
         <v>104</v>
       </c>
+      <c r="F11" s="26" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="57">
+      <c r="B12" s="37">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="57">
+      <c r="F12" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B13" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="57">
+      <c r="C13" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="108" x14ac:dyDescent="0.25">
+      <c r="B14" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="C14" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="57">
+      <c r="B15" s="37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="57">
+      <c r="B16" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="57">
+      <c r="B17" s="37">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="57">
+      <c r="B18" s="37">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="57">
+      <c r="B19" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="57">
+      <c r="B20" s="37">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="57">
+      <c r="B21" s="37">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="57">
+      <c r="B22" s="37">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="57">
+      <c r="B23" s="37">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="57">
+      <c r="B24" s="37">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="57">
+      <c r="B25" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="57">
+      <c r="B26" s="37">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="57">
+      <c r="B27" s="37">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="57">
+      <c r="B28" s="37">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="57">
+      <c r="B29" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="57">
+      <c r="B30" s="37">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="59"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">
